--- a/data/trans_dic/POLIPATOLOGIA_2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,33</t>
+          <t>14,39; 23,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,35; 27,89</t>
+          <t>18,24; 28,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 30,13</t>
+          <t>19,5; 29,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 34,1</t>
+          <t>22,73; 34,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,5; 31,52</t>
+          <t>20,66; 31,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,98; 47,43</t>
+          <t>35,07; 47,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,95; 47,49</t>
+          <t>35,76; 47,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,08; 37,69</t>
+          <t>29,54; 38,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 25,77</t>
+          <t>18,61; 25,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,04; 36,16</t>
+          <t>28,34; 36,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 37,03</t>
+          <t>29,02; 36,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 34,42</t>
+          <t>27,18; 34,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,76</t>
+          <t>14,61; 21,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 25,0</t>
+          <t>17,29; 25,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,57</t>
+          <t>18,08; 25,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,54; 30,71</t>
+          <t>21,66; 30,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,32; 45,02</t>
+          <t>36,21; 44,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 38,88</t>
+          <t>30,72; 38,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,12; 39,59</t>
+          <t>30,94; 39,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,2; 43,9</t>
+          <t>35,84; 43,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 32,36</t>
+          <t>26,56; 32,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 31,3</t>
+          <t>24,83; 31,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,72; 31,66</t>
+          <t>25,71; 31,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,9; 36,24</t>
+          <t>29,81; 36,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 20,98</t>
+          <t>12,9; 20,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 33,38</t>
+          <t>22,97; 33,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 23,4</t>
+          <t>14,9; 23,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,6; 40,9</t>
+          <t>30,73; 41,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,97; 35,62</t>
+          <t>25,79; 35,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,11; 41,69</t>
+          <t>31,32; 41,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,15; 37,66</t>
+          <t>26,83; 37,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,28; 51,02</t>
+          <t>42,18; 51,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 27,52</t>
+          <t>20,78; 27,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 36,37</t>
+          <t>28,45; 36,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,4</t>
+          <t>22,47; 29,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,2; 44,84</t>
+          <t>38,3; 45,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 25,07</t>
+          <t>16,41; 25,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 28,18</t>
+          <t>19,48; 28,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 34,16</t>
+          <t>24,32; 34,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,36; 42,87</t>
+          <t>29,91; 42,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 35,49</t>
+          <t>26,33; 36,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 49,28</t>
+          <t>38,97; 49,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,83; 48,6</t>
+          <t>37,78; 48,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,15; 70,3</t>
+          <t>41,53; 70,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,98; 29,23</t>
+          <t>22,73; 28,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,79; 37,6</t>
+          <t>30,57; 37,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,56; 39,89</t>
+          <t>32,22; 39,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 61,62</t>
+          <t>38,75; 62,33</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,43</t>
+          <t>8,81; 18,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 35,31</t>
+          <t>22,38; 35,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,86</t>
+          <t>17,32; 28,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,37; 38,58</t>
+          <t>27,82; 38,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,62; 37,98</t>
+          <t>23,98; 37,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,5; 65,16</t>
+          <t>52,71; 65,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,98; 47,29</t>
+          <t>33,89; 46,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 55,26</t>
+          <t>22,32; 55,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 25,87</t>
+          <t>17,58; 26,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,65; 48,19</t>
+          <t>39,01; 48,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 36,44</t>
+          <t>27,72; 36,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,38; 45,89</t>
+          <t>26,05; 45,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,43; 23,55</t>
+          <t>14,75; 23,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,71; 38,87</t>
+          <t>27,73; 38,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 29,55</t>
+          <t>18,42; 29,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,62; 48,83</t>
+          <t>38,09; 48,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 41,25</t>
+          <t>30,39; 42,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,91; 51,67</t>
+          <t>39,91; 51,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,99; 40,27</t>
+          <t>28,48; 40,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,49; 54,73</t>
+          <t>44,75; 55,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,96; 30,57</t>
+          <t>23,48; 30,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,38</t>
+          <t>35,11; 43,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,49; 33,76</t>
+          <t>25,69; 33,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,66; 50,01</t>
+          <t>42,4; 49,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,89</t>
+          <t>16,47; 22,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 30,34</t>
+          <t>23,4; 30,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 25,08</t>
+          <t>18,58; 25,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,95; 44,14</t>
+          <t>35,33; 44,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,42; 33,5</t>
+          <t>25,95; 33,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,04; 43,41</t>
+          <t>35,79; 43,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,73; 35,93</t>
+          <t>29,02; 35,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,75; 85,81</t>
+          <t>60,79; 84,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,22; 26,93</t>
+          <t>22,15; 27,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,91</t>
+          <t>30,74; 36,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,9; 29,91</t>
+          <t>24,75; 29,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,91; 73,59</t>
+          <t>50,21; 74,53</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,53</t>
+          <t>22,22; 28,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,82</t>
+          <t>16,97; 22,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,52; 30,12</t>
+          <t>23,31; 29,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,41; 28,27</t>
+          <t>8,66; 28,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,93; 41,08</t>
+          <t>33,78; 41,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,53; 33,05</t>
+          <t>26,61; 33,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,99; 39,06</t>
+          <t>31,87; 38,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,05; 41,03</t>
+          <t>34,81; 41,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,94; 33,81</t>
+          <t>29,05; 33,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,87; 27,2</t>
+          <t>22,96; 27,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,91; 33,56</t>
+          <t>29,0; 33,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,33; 33,62</t>
+          <t>17,61; 33,4</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,39; 21,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,79; 25,83</t>
+          <t>22,97; 25,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,38; 25,38</t>
+          <t>22,51; 25,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,66; 33,4</t>
+          <t>24,15; 33,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,94; 35,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,14; 40,32</t>
+          <t>37,1; 40,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,88</t>
+          <t>34,45; 37,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45,14; 58,64</t>
+          <t>45,36; 58,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,53; 27,87</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,86</t>
+          <t>30,5; 32,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>28,96; 31,24</t>
+          <t>28,93; 31,19</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>36,21; 45,64</t>
+          <t>36,37; 46,04</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50091</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67518</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72497</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87760</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67405</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>118769</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>120089</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>97808</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>117497</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>186288</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>192586</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>185567</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39298; 63561</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53758; 84006</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>57294; 87911</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>70800; 106060</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53881; 82166</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100726; 135286</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>103247; 137458</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85564; 111189</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99358; 135959</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>164933; 211413</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>169038; 215202</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>163392; 209946</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89212</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>105314</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>109496</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>133518</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>203763</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>181939</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>184649</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>205369</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>292975</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>287253</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>294144</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>338886</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72027; 107118</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>87405; 127303</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>90874; 127070</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>112278; 159580</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>182474; 226360</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>160879; 203063</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>161832; 207069</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>184554; 224393</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>264803; 323000</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>255527; 320153</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>263729; 325609</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>308052; 372684</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>52608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>90667</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60809</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>112273</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>103040</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>124119</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>107569</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>163465</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>155648</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>214786</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>168378</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>275738</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41126; 66871</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74424; 107864</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47464; 74894</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>97132; 129783</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>86511; 120595</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>106803; 142634</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>90242; 124903</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>147275; 179502</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>135959; 178271</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>189232; 239567</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>147146; 190588</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>254751; 299915</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>74595</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>88711</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>106587</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111584</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>113907</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>171912</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>166458</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>250516</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>188502</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>260623</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>273045</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>362099</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>58868; 89852</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72833; 107554</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>89975; 127694</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>93480; 132762</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>97820; 133707</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>151565; 192459</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>146307; 186235</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>197584; 337274</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>165990; 210235</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>233212; 287640</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>244016; 299234</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>305431; 491334</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25932</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>59701</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>48532</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>59513</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>63361</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>130021</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>88235</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>112999</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>89293</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>189722</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>136767</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>172512</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17921; 36772</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>47593; 74573</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36575; 61004</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49733; 69599</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>49797; 78449</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>115747; 143806</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>74072; 102126</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>57763; 142637</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>72247; 107106</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>168624; 210860</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>119149; 154866</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>113963; 198790</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>49753</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>89987</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>62993</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>116316</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>99138</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>128525</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>94553</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>127028</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148891</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>218511</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>157546</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>243344</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39943; 64728</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>75962; 106117</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>48454; 76634</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>102700; 131132</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>84534; 117588</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>111770; 145333</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>77784; 111129</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>115033; 142002</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>128873; 169884</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>194532; 242009</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>137750; 180571</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>223326; 261907</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>118933</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>177391</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>141953</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>247221</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>190123</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>274951</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>224996</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>602836</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>309056</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>452342</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>366949</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>850057</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>101322; 140427</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>155123; 202684</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>121973; 166439</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>220537; 278424</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>165590; 211827</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>248348; 301750</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>200592; 248238</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>516307; 719717</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>277581; 340039</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>417019; 489022</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>333638; 400870</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>739848; 1098214</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>186860</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>153565</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>206742</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>186494</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>291624</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>246340</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>293231</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>271949</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>478484</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>399905</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>499974</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>458443</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>165262; 211426</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>132221; 177755</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>181526; 232795</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>80471; 262365</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>264696; 322414</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>219261; 272602</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>263302; 321863</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>249865; 295282</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>443629; 518115</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>368104; 438989</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>465303; 541476</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>289973; 549943</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>647983</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>832854</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>809608</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1054679</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1132361</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1376577</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1279781</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1831969</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1780344</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2209431</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2089390</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2886648</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>602418; 688582</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>787129; 888717</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>764151; 859191</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>835717; 1156801</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1079246; 1194125</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1320215; 1442583</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1220979; 1338743</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1683891; 2167780</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1699278; 1855089</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2130636; 2286226</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2007492; 2164548</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2608595; 3302182</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>